--- a/target/test-classes/TestScriptdata.xlsx
+++ b/target/test-classes/TestScriptdata.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CC1C3202-9160-4D85-A790-912D2E0FECAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSP\git\Batch-7-9PM-\Batch-7-9PM-\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA38DAFE-B1D1-4245-B521-5161462F8E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="4890" activeTab="1" xr2:uid="{4027676B-4176-44E5-866B-1F4A563F0EFB}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{4027676B-4176-44E5-866B-1F4A563F0EFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,6 @@
     <sheet name="NinjaLogin" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -206,7 +210,7 @@
     <t>50000</t>
   </si>
   <si>
-    <t>ST</t>
+    <t>NewYear</t>
   </si>
 </sst>
 </file>
@@ -308,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -316,11 +320,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -340,9 +343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -380,7 +383,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -486,7 +489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -628,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,10 +688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52CD3B0-86CF-49B5-BDCA-FA8FAB6F6E50}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +701,7 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -712,7 +715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -726,7 +729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -737,7 +740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -747,8 +750,9 @@
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -758,8 +762,9 @@
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -770,10 +775,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
     </row>
   </sheetData>
@@ -825,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE2B5B4-D379-402E-8590-92DDA39DED36}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,40 +1059,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
